--- a/_documents/프로그램 목록(KPC-STS-D01).xlsx
+++ b/_documents/프로그램 목록(KPC-STS-D01).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\sprint_test_II\_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-clone\Sky_to_Solar\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="118">
   <si>
     <t>최초 작성</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -538,6 +538,62 @@
   </si>
   <si>
     <t>결과 페이지 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24.01.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1258,6 +1314,9 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -1279,6 +1338,15 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1288,40 +1356,28 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="2" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="9" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4056,10 +4112,10 @@
       <c r="J3" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="61" t="s">
         <v>23</v>
       </c>
-      <c r="L3" s="60"/>
+      <c r="L3" s="61"/>
       <c r="M3" s="36"/>
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
@@ -4171,79 +4227,79 @@
     </row>
     <row r="11" spans="1:13" ht="21" customHeight="1">
       <c r="A11" s="38"/>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-      <c r="J11" s="61"/>
-      <c r="K11" s="61"/>
-      <c r="L11" s="61"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="62"/>
+      <c r="H11" s="62"/>
+      <c r="I11" s="62"/>
+      <c r="J11" s="62"/>
+      <c r="K11" s="62"/>
+      <c r="L11" s="62"/>
       <c r="M11" s="36"/>
     </row>
     <row r="12" spans="1:13" ht="21" customHeight="1">
       <c r="A12" s="38"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="62"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="63"/>
+      <c r="J12" s="63"/>
+      <c r="K12" s="63"/>
+      <c r="L12" s="63"/>
       <c r="M12" s="36"/>
     </row>
     <row r="13" spans="1:13" ht="21" customHeight="1">
       <c r="A13" s="38"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="62"/>
-      <c r="E13" s="62"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="63"/>
+      <c r="E13" s="63"/>
+      <c r="F13" s="63"/>
+      <c r="G13" s="63"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="63"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
       <c r="M13" s="36"/>
     </row>
     <row r="14" spans="1:13" ht="21" customHeight="1">
       <c r="A14" s="38"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="62"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
       <c r="M14" s="36"/>
     </row>
     <row r="15" spans="1:13" ht="21" customHeight="1" thickBot="1">
       <c r="A15" s="38"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="64"/>
+      <c r="E15" s="64"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="64"/>
+      <c r="H15" s="64"/>
+      <c r="I15" s="64"/>
+      <c r="J15" s="64"/>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="36"/>
     </row>
     <row r="16" spans="1:13" ht="21" customHeight="1" thickTop="1">
@@ -4311,13 +4367,13 @@
       <c r="B20" s="37"/>
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
-      <c r="E20" s="64" t="s">
+      <c r="E20" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="64"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="64"/>
-      <c r="I20" s="64"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
       <c r="J20" s="37"/>
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
@@ -4328,11 +4384,11 @@
       <c r="B21" s="37"/>
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
-      <c r="E21" s="64"/>
-      <c r="F21" s="64"/>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-      <c r="I21" s="64"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
       <c r="J21" s="37"/>
       <c r="K21" s="37"/>
       <c r="L21" s="37"/>
@@ -4344,11 +4400,11 @@
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
       <c r="E22" s="37"/>
-      <c r="F22" s="65">
+      <c r="F22" s="66">
         <v>45316</v>
       </c>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
       <c r="I22" s="37"/>
       <c r="J22" s="37"/>
       <c r="K22" s="37"/>
@@ -4361,9 +4417,9 @@
       <c r="C23" s="37"/>
       <c r="D23" s="37"/>
       <c r="E23" s="37"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
       <c r="I23" s="37"/>
       <c r="J23" s="37"/>
       <c r="K23" s="37"/>
@@ -4528,10 +4584,10 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="67" t="s">
+      <c r="K2" s="71" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="67"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="31.5">
@@ -4551,19 +4607,19 @@
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
       <c r="A4" s="14"/>
-      <c r="B4" s="68" t="s">
+      <c r="B4" s="72" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="68"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="72"/>
+      <c r="L4" s="72"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1">
@@ -4589,17 +4645,17 @@
       <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="69" t="s">
+      <c r="D6" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69" t="s">
+      <c r="E6" s="73"/>
+      <c r="F6" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="73"/>
+      <c r="J6" s="73"/>
       <c r="K6" s="19" t="s">
         <v>3</v>
       </c>
@@ -4616,17 +4672,17 @@
       <c r="C7" s="16">
         <v>45316</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="71"/>
-      <c r="F7" s="70" t="s">
+      <c r="E7" s="69"/>
+      <c r="F7" s="68" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="72"/>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
-      <c r="J7" s="71"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="69"/>
       <c r="K7" s="15" t="s">
         <v>9</v>
       </c>
@@ -4639,13 +4695,13 @@
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="71"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="72"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="72"/>
-      <c r="J8" s="71"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="69"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="10"/>
@@ -4654,13 +4710,13 @@
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="71"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="71"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="10"/>
@@ -4669,13 +4725,13 @@
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="71"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="72"/>
-      <c r="J10" s="71"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="69"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="10"/>
@@ -4684,13 +4740,13 @@
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="72"/>
-      <c r="J11" s="71"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="69"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="10"/>
@@ -4699,13 +4755,13 @@
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="72"/>
-      <c r="J12" s="71"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="69"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="10"/>
@@ -4714,13 +4770,13 @@
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="70"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="70"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="72"/>
-      <c r="J13" s="71"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="69"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="69"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="10"/>
@@ -4729,13 +4785,13 @@
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="72"/>
-      <c r="J14" s="71"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="68"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="69"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="10"/>
@@ -4744,13 +4800,13 @@
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="70"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="70"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="72"/>
-      <c r="J15" s="71"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="69"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="69"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="10"/>
@@ -4759,13 +4815,13 @@
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="72"/>
-      <c r="H16" s="72"/>
-      <c r="I16" s="72"/>
-      <c r="J16" s="71"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="69"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="69"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="10"/>
@@ -4774,13 +4830,13 @@
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="71"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="72"/>
-      <c r="J17" s="71"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="69"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="69"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="10"/>
@@ -4789,13 +4845,13 @@
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="71"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="69"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="69"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="10"/>
@@ -4804,13 +4860,13 @@
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="72"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="71"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="69"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="10"/>
@@ -4819,13 +4875,13 @@
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="72"/>
-      <c r="H20" s="72"/>
-      <c r="I20" s="72"/>
-      <c r="J20" s="71"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="69"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="69"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="10"/>
@@ -4834,13 +4890,13 @@
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="71"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="71"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="69"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="69"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="10"/>
@@ -4849,13 +4905,13 @@
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="72"/>
-      <c r="I22" s="72"/>
-      <c r="J22" s="71"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="69"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="69"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="10"/>
@@ -4864,13 +4920,13 @@
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
-      <c r="I23" s="72"/>
-      <c r="J23" s="71"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="69"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="69"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="10"/>
@@ -4879,13 +4935,13 @@
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="71"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="69"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="10"/>
@@ -4967,6 +5023,36 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -4977,36 +5063,6 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5024,7 +5080,7 @@
   <dimension ref="A4:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12"/>
@@ -5045,52 +5101,52 @@
   <sheetData>
     <row r="4" spans="1:11" ht="33" customHeight="1"/>
     <row r="5" spans="1:11" s="48" customFormat="1" ht="23.45" customHeight="1">
-      <c r="A5" s="75" t="s">
+      <c r="A5" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="76" t="s">
+      <c r="C5" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="76" t="s">
+      <c r="D5" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="76" t="s">
+      <c r="E5" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="76" t="s">
+      <c r="F5" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="73" t="s">
+      <c r="G5" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="73"/>
-      <c r="I5" s="73"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="76" t="s">
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="78" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="48" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A6" s="78"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="56" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="79" t="s">
+      <c r="I6" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="81"/>
-      <c r="K6" s="77"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="1:11" ht="13.5">
       <c r="A7" s="57" t="s">
@@ -5109,8 +5165,12 @@
       <c r="F7" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="52"/>
-      <c r="H7" s="53"/>
+      <c r="G7" s="52" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>105</v>
+      </c>
       <c r="I7" s="53" t="s">
         <v>92</v>
       </c>
@@ -5132,8 +5192,12 @@
       <c r="F8" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="G8" s="52"/>
-      <c r="H8" s="53"/>
+      <c r="G8" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="53" t="s">
+        <v>106</v>
+      </c>
       <c r="I8" s="53" t="s">
         <v>92</v>
       </c>
@@ -5157,8 +5221,12 @@
       <c r="F9" s="51" t="s">
         <v>69</v>
       </c>
-      <c r="G9" s="52"/>
-      <c r="H9" s="53"/>
+      <c r="G9" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H9" s="53" t="s">
+        <v>110</v>
+      </c>
       <c r="I9" s="53" t="s">
         <v>93</v>
       </c>
@@ -5178,8 +5246,12 @@
       <c r="F10" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="G10" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="53" t="s">
+        <v>110</v>
+      </c>
       <c r="I10" s="53" t="s">
         <v>93</v>
       </c>
@@ -5201,8 +5273,12 @@
       <c r="F11" s="51" t="s">
         <v>70</v>
       </c>
-      <c r="G11" s="52"/>
-      <c r="H11" s="53"/>
+      <c r="G11" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H11" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="I11" s="53" t="s">
         <v>93</v>
       </c>
@@ -5222,8 +5298,12 @@
       <c r="F12" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="52"/>
-      <c r="H12" s="53"/>
+      <c r="G12" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H12" s="53" t="s">
+        <v>104</v>
+      </c>
       <c r="I12" s="53" t="s">
         <v>93</v>
       </c>
@@ -5247,8 +5327,12 @@
       <c r="F13" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="G13" s="52"/>
-      <c r="H13" s="53"/>
+      <c r="G13" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="53" t="s">
+        <v>108</v>
+      </c>
       <c r="I13" s="53" t="s">
         <v>45</v>
       </c>
@@ -5270,15 +5354,19 @@
       <c r="F14" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
+      <c r="G14" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" s="53" t="s">
+        <v>107</v>
+      </c>
       <c r="I14" s="53" t="s">
         <v>45</v>
       </c>
       <c r="J14" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="K14" s="80" t="s">
+      <c r="K14" s="60" t="s">
         <v>36</v>
       </c>
     </row>
@@ -5293,8 +5381,12 @@
       <c r="F15" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="G15" s="52" t="s">
+        <v>115</v>
+      </c>
+      <c r="H15" s="53" t="s">
+        <v>107</v>
+      </c>
       <c r="I15" s="53" t="s">
         <v>45</v>
       </c>
@@ -5316,8 +5408,12 @@
       <c r="F16" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
+      <c r="G16" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="53" t="s">
+        <v>107</v>
+      </c>
       <c r="I16" s="53" t="s">
         <v>45</v>
       </c>
@@ -5339,8 +5435,12 @@
       <c r="F17" s="51" t="s">
         <v>59</v>
       </c>
-      <c r="G17" s="52"/>
-      <c r="H17" s="53"/>
+      <c r="G17" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H17" s="53" t="s">
+        <v>109</v>
+      </c>
       <c r="I17" s="53" t="s">
         <v>45</v>
       </c>
@@ -5362,8 +5462,12 @@
       <c r="F18" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="52"/>
-      <c r="H18" s="53"/>
+      <c r="G18" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="53" t="s">
+        <v>109</v>
+      </c>
       <c r="I18" s="53" t="s">
         <v>45</v>
       </c>
@@ -5391,8 +5495,12 @@
       <c r="F19" s="51" t="s">
         <v>73</v>
       </c>
-      <c r="G19" s="52"/>
-      <c r="H19" s="53"/>
+      <c r="G19" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="53" t="s">
+        <v>109</v>
+      </c>
       <c r="I19" s="53" t="s">
         <v>91</v>
       </c>
@@ -5412,8 +5520,12 @@
       <c r="F20" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G20" s="52"/>
-      <c r="H20" s="53"/>
+      <c r="G20" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="53" t="s">
+        <v>110</v>
+      </c>
       <c r="I20" s="53" t="s">
         <v>93</v>
       </c>
@@ -5433,8 +5545,12 @@
       <c r="F21" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G21" s="52"/>
-      <c r="H21" s="53"/>
+      <c r="G21" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="53" t="s">
+        <v>111</v>
+      </c>
       <c r="I21" s="53" t="s">
         <v>93</v>
       </c>
@@ -5456,8 +5572,12 @@
       <c r="F22" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G22" s="52"/>
-      <c r="H22" s="53"/>
+      <c r="G22" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="53" t="s">
+        <v>112</v>
+      </c>
       <c r="I22" s="53" t="s">
         <v>93</v>
       </c>
@@ -5483,8 +5603,12 @@
       <c r="F23" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G23" s="52"/>
-      <c r="H23" s="53"/>
+      <c r="G23" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="I23" s="53" t="s">
         <v>91</v>
       </c>
@@ -5504,8 +5628,12 @@
       <c r="F24" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G24" s="52"/>
-      <c r="H24" s="53"/>
+      <c r="G24" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" s="53" t="s">
+        <v>117</v>
+      </c>
       <c r="I24" s="53" t="s">
         <v>91</v>
       </c>
@@ -5527,8 +5655,12 @@
       <c r="F25" s="51" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="52"/>
-      <c r="H25" s="53"/>
+      <c r="G25" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="53" t="s">
+        <v>113</v>
+      </c>
       <c r="I25" s="53" t="s">
         <v>91</v>
       </c>
@@ -5546,8 +5678,12 @@
       <c r="F26" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G26" s="52"/>
-      <c r="H26" s="53"/>
+      <c r="G26" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>109</v>
+      </c>
       <c r="I26" s="53" t="s">
         <v>91</v>
       </c>
@@ -5571,8 +5707,12 @@
       <c r="F27" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="G27" s="52"/>
-      <c r="H27" s="53"/>
+      <c r="G27" s="52" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="53" t="s">
+        <v>109</v>
+      </c>
       <c r="I27" s="53" t="s">
         <v>96</v>
       </c>
@@ -5592,8 +5732,12 @@
       <c r="F28" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="G28" s="52"/>
-      <c r="H28" s="53"/>
+      <c r="G28" s="52" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="53" t="s">
+        <v>114</v>
+      </c>
       <c r="I28" s="53" t="s">
         <v>92</v>
       </c>

--- a/_documents/프로그램 목록(KPC-STS-D01).xlsx
+++ b/_documents/프로그램 목록(KPC-STS-D01).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git-clone\Sky_to_Solar\_documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sky_to_Solar\_documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1338,6 +1338,15 @@
     <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1346,15 +1355,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="11" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4584,10 +4584,10 @@
       <c r="H2" s="12"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="71"/>
+      <c r="L2" s="68"/>
       <c r="M2" s="10"/>
     </row>
     <row r="3" spans="1:13" ht="31.5">
@@ -4607,19 +4607,19 @@
     </row>
     <row r="4" spans="1:13" ht="21" customHeight="1">
       <c r="A4" s="14"/>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+      <c r="J4" s="69"/>
+      <c r="K4" s="69"/>
+      <c r="L4" s="69"/>
       <c r="M4" s="10"/>
     </row>
     <row r="5" spans="1:13" ht="21" customHeight="1">
@@ -4645,17 +4645,17 @@
       <c r="C6" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="73" t="s">
+      <c r="D6" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="73"/>
-      <c r="F6" s="73" t="s">
+      <c r="E6" s="70"/>
+      <c r="F6" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="73"/>
-      <c r="J6" s="73"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
       <c r="K6" s="19" t="s">
         <v>3</v>
       </c>
@@ -4672,17 +4672,17 @@
       <c r="C7" s="16">
         <v>45316</v>
       </c>
-      <c r="D7" s="68" t="s">
+      <c r="D7" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="68" t="s">
+      <c r="E7" s="72"/>
+      <c r="F7" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="69"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="72"/>
       <c r="K7" s="15" t="s">
         <v>9</v>
       </c>
@@ -4695,13 +4695,13 @@
       <c r="A8" s="14"/>
       <c r="B8" s="15"/>
       <c r="C8" s="16"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="68"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="69"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="72"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15"/>
       <c r="M8" s="10"/>
@@ -4710,13 +4710,13 @@
       <c r="A9" s="14"/>
       <c r="B9" s="15"/>
       <c r="C9" s="16"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="68"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="69"/>
+      <c r="D9" s="71"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="72"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15"/>
       <c r="M9" s="10"/>
@@ -4725,13 +4725,13 @@
       <c r="A10" s="14"/>
       <c r="B10" s="15"/>
       <c r="C10" s="16"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="69"/>
+      <c r="D10" s="71"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="72"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15"/>
       <c r="M10" s="10"/>
@@ -4740,13 +4740,13 @@
       <c r="A11" s="14"/>
       <c r="B11" s="15"/>
       <c r="C11" s="16"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="69"/>
-      <c r="F11" s="68"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="69"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="71"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="72"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15"/>
       <c r="M11" s="10"/>
@@ -4755,13 +4755,13 @@
       <c r="A12" s="14"/>
       <c r="B12" s="17"/>
       <c r="C12" s="18"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="69"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="69"/>
+      <c r="D12" s="71"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="72"/>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
       <c r="M12" s="10"/>
@@ -4770,13 +4770,13 @@
       <c r="A13" s="14"/>
       <c r="B13" s="17"/>
       <c r="C13" s="18"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="69"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="69"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="73"/>
+      <c r="J13" s="72"/>
       <c r="K13" s="17"/>
       <c r="L13" s="17"/>
       <c r="M13" s="10"/>
@@ -4785,13 +4785,13 @@
       <c r="A14" s="14"/>
       <c r="B14" s="17"/>
       <c r="C14" s="18"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="69"/>
+      <c r="D14" s="71"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="73"/>
+      <c r="J14" s="72"/>
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
       <c r="M14" s="10"/>
@@ -4800,13 +4800,13 @@
       <c r="A15" s="14"/>
       <c r="B15" s="17"/>
       <c r="C15" s="18"/>
-      <c r="D15" s="68"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="68"/>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="69"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="72"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="73"/>
+      <c r="J15" s="72"/>
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
       <c r="M15" s="10"/>
@@ -4815,13 +4815,13 @@
       <c r="A16" s="14"/>
       <c r="B16" s="17"/>
       <c r="C16" s="18"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="69"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="72"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="72"/>
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
       <c r="M16" s="10"/>
@@ -4830,13 +4830,13 @@
       <c r="A17" s="14"/>
       <c r="B17" s="15"/>
       <c r="C17" s="16"/>
-      <c r="D17" s="68"/>
-      <c r="E17" s="69"/>
-      <c r="F17" s="68"/>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="69"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="71"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="73"/>
+      <c r="J17" s="72"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="10"/>
@@ -4845,13 +4845,13 @@
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="16"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="69"/>
+      <c r="D18" s="71"/>
+      <c r="E18" s="72"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="73"/>
+      <c r="J18" s="72"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="10"/>
@@ -4860,13 +4860,13 @@
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="16"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="69"/>
-      <c r="F19" s="68"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="69"/>
+      <c r="D19" s="71"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="71"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="73"/>
+      <c r="J19" s="72"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="10"/>
@@ -4875,13 +4875,13 @@
       <c r="A20" s="14"/>
       <c r="B20" s="15"/>
       <c r="C20" s="16"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="69"/>
+      <c r="D20" s="71"/>
+      <c r="E20" s="72"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="72"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="10"/>
@@ -4890,13 +4890,13 @@
       <c r="A21" s="14"/>
       <c r="B21" s="15"/>
       <c r="C21" s="16"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="68"/>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="69"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="71"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+      <c r="J21" s="72"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="10"/>
@@ -4905,13 +4905,13 @@
       <c r="A22" s="14"/>
       <c r="B22" s="15"/>
       <c r="C22" s="16"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="69"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="72"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+      <c r="J22" s="72"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="10"/>
@@ -4920,13 +4920,13 @@
       <c r="A23" s="14"/>
       <c r="B23" s="15"/>
       <c r="C23" s="16"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="68"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="69"/>
+      <c r="D23" s="71"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="72"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="10"/>
@@ -4935,13 +4935,13 @@
       <c r="A24" s="14"/>
       <c r="B24" s="15"/>
       <c r="C24" s="16"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="69"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="71"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="73"/>
+      <c r="J24" s="72"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="10"/>
@@ -5023,36 +5023,6 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="K2:L2"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:J19"/>
     <mergeCell ref="D23:E23"/>
     <mergeCell ref="F23:J23"/>
     <mergeCell ref="D24:E24"/>
@@ -5063,6 +5033,36 @@
     <mergeCell ref="F21:J21"/>
     <mergeCell ref="D22:E22"/>
     <mergeCell ref="F22:J22"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -5077,10 +5077,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:K33"/>
+  <dimension ref="A4:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="6" defaultRowHeight="12"/>
@@ -5759,58 +5759,6 @@
       <c r="J29" s="54"/>
       <c r="K29" s="55"/>
     </row>
-    <row r="30" spans="1:11" ht="13.5">
-      <c r="A30" s="57"/>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="49"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="51"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="53"/>
-      <c r="I30" s="53"/>
-      <c r="J30" s="54"/>
-      <c r="K30" s="55"/>
-    </row>
-    <row r="31" spans="1:11" ht="13.5">
-      <c r="A31" s="57"/>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="51"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="53"/>
-      <c r="I31" s="53"/>
-      <c r="J31" s="54"/>
-      <c r="K31" s="55"/>
-    </row>
-    <row r="32" spans="1:11" ht="13.5">
-      <c r="A32" s="57"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="49"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="51"/>
-      <c r="G32" s="52"/>
-      <c r="H32" s="53"/>
-      <c r="I32" s="53"/>
-      <c r="J32" s="54"/>
-      <c r="K32" s="55"/>
-    </row>
-    <row r="33" spans="1:11" ht="13.5">
-      <c r="A33" s="57"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="49"/>
-      <c r="E33" s="50"/>
-      <c r="F33" s="51"/>
-      <c r="G33" s="52"/>
-      <c r="H33" s="53"/>
-      <c r="I33" s="53"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="55"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="I6:J6"/>
@@ -5826,7 +5774,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="지정 타입 아님" error="지정 타입 아님" sqref="D5:E5 K5"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="지정 타입 아님" error="지정 타입 아님" sqref="D34:F65115">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="지정 타입 아님" error="지정 타입 아님" sqref="D30:F65111">
       <formula1>Type</formula1>
     </dataValidation>
   </dataValidations>
